--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -605,27 +605,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -635,12 +635,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -650,22 +650,22 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -685,27 +685,27 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -757,57 +757,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -822,57 +822,57 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -944,17 +944,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -969,57 +969,57 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1056,52 +1056,52 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1116,37 +1116,37 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1203,57 +1203,57 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1263,27 +1263,27 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1293,27 +1293,27 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1340,27 +1340,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1370,32 +1370,32 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1420,32 +1420,32 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1472,17 +1472,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1497,17 +1497,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1517,42 +1517,42 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1567,47 +1567,47 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1619,17 +1619,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1674,22 +1674,22 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1714,17 +1714,17 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1739,22 +1739,22 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1781,27 +1781,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1811,32 +1811,32 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1851,27 +1851,27 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1881,27 +1881,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1933,32 +1933,32 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1973,17 +1973,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2008,27 +2008,27 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2038,17 +2038,17 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2060,77 +2060,77 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2140,22 +2140,22 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2212,57 +2212,57 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2282,32 +2282,32 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2327,12 +2327,12 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2384,37 +2384,37 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2464,12 +2464,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2516,37 +2516,37 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2556,12 +2556,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2571,67 +2571,67 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2653,12 +2653,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2668,12 +2668,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2688,12 +2688,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2723,37 +2723,37 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2795,27 +2795,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2825,17 +2825,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2845,17 +2845,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2865,17 +2865,17 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2885,52 +2885,52 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -2947,32 +2947,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3002,17 +3002,17 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3027,22 +3027,22 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -3062,22 +3062,22 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3094,22 +3094,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3124,17 +3124,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3144,17 +3144,17 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3164,22 +3164,22 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3194,37 +3194,37 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3251,42 +3251,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -3296,17 +3296,17 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3341,37 +3341,37 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3428,42 +3428,42 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3473,32 +3473,32 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3555,37 +3555,37 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3595,22 +3595,22 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3625,17 +3625,17 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -3645,17 +3645,17 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3677,82 +3677,82 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -3762,42 +3762,42 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3829,22 +3829,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3864,17 +3864,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3909,37 +3909,37 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3954,12 +3954,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3996,42 +3996,42 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -4041,37 +4041,37 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -4081,32 +4081,32 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -4123,17 +4123,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4158,37 +4158,37 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4203,22 +4203,22 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -4248,12 +4248,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4280,57 +4280,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4340,22 +4340,22 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -4370,37 +4370,37 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4442,27 +4442,27 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -4472,17 +4472,17 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -4517,27 +4517,27 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4559,17 +4559,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4584,17 +4584,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4604,12 +4604,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -4619,27 +4619,27 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4649,32 +4649,32 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4721,37 +4721,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -4766,17 +4766,17 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4786,17 +4786,17 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -4806,42 +4806,42 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -4853,27 +4853,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4883,17 +4883,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4928,57 +4928,57 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -5000,22 +5000,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5025,37 +5025,37 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -5075,32 +5075,32 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5120,22 +5120,22 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -5147,47 +5147,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5197,12 +5197,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5212,17 +5212,17 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -5242,12 +5242,12 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -5257,17 +5257,17 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -5277,12 +5277,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34970</v>
+        <v>33706</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5360,7 +5360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5413,13 +5413,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5427,21 +5427,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5449,43 +5449,43 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5493,21 +5493,21 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>-7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5515,65 +5515,65 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
       <c r="F7" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -5581,65 +5581,65 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
         <v>4</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>32</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -5647,21 +5647,21 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -5669,43 +5669,43 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
       <c r="F14" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -5713,21 +5713,21 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
         <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>32</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -5735,21 +5735,21 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
-        <v>7</v>
-      </c>
       <c r="F17" t="n">
-        <v>-7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -5765,13 +5765,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -5801,21 +5801,21 @@
         <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -5823,43 +5823,43 @@
         <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -5867,21 +5867,21 @@
         <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -5889,65 +5889,65 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -5955,65 +5955,65 @@
         <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7</v>
-      </c>
       <c r="F28" t="n">
-        <v>-7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
         <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>32</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -6021,21 +6021,21 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -6043,65 +6043,65 @@
         <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="n">
-        <v>4</v>
-      </c>
       <c r="F31" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -6109,87 +6109,87 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>7</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -6197,65 +6197,65 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>-4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7</v>
-      </c>
       <c r="F39" t="n">
-        <v>-7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -6263,21 +6263,21 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -6285,43 +6285,43 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D42" t="n">
+        <v>9</v>
+      </c>
+      <c r="E42" t="n">
         <v>0</v>
       </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
       <c r="F42" t="n">
-        <v>-4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -6329,21 +6329,21 @@
         <v>13</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -6351,65 +6351,65 @@
         <v>13</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="E45" t="n">
-        <v>4</v>
-      </c>
       <c r="F45" t="n">
-        <v>-4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -6417,48 +6417,48 @@
         <v>14</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" t="n">
         <v>2</v>
@@ -6469,18 +6469,18 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
@@ -6491,18 +6491,18 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -6513,40 +6513,40 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>7</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
@@ -6557,18 +6557,18 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -6579,128 +6579,128 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="E56" t="n">
-        <v>7</v>
-      </c>
       <c r="F56" t="n">
-        <v>-7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>7</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
@@ -6711,18 +6711,18 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -6733,18 +6733,18 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -6755,35 +6755,35 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -6791,65 +6791,65 @@
         <v>19</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>7</v>
-      </c>
       <c r="F66" t="n">
-        <v>-7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -6857,48 +6857,48 @@
         <v>20</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="n">
         <v>4</v>
-      </c>
-      <c r="F68" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>9</v>
+      </c>
+      <c r="E69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>7</v>
-      </c>
       <c r="F69" t="n">
-        <v>-7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" t="n">
         <v>2</v>
@@ -6909,18 +6909,18 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" t="n">
         <v>3</v>
@@ -6931,18 +6931,18 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -6953,40 +6953,40 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>-7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
         <v>7</v>
-      </c>
-      <c r="F73" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" t="n">
         <v>3</v>
@@ -6997,18 +6997,18 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -7019,18 +7019,18 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -7041,35 +7041,35 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -7077,87 +7077,87 @@
         <v>23</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>8</v>
+      </c>
+      <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>7</v>
-      </c>
       <c r="F79" t="n">
-        <v>-7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -7165,65 +7165,65 @@
         <v>24</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>-4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>6</v>
+      </c>
+      <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>7</v>
-      </c>
       <c r="F83" t="n">
-        <v>-7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -7231,21 +7231,21 @@
         <v>25</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -7253,43 +7253,43 @@
         <v>25</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D86" t="n">
+        <v>8</v>
+      </c>
+      <c r="E86" t="n">
         <v>0</v>
       </c>
-      <c r="E86" t="n">
-        <v>4</v>
-      </c>
       <c r="F86" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -7297,21 +7297,21 @@
         <v>26</v>
       </c>
       <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7</v>
+      </c>
+      <c r="F88" t="n">
         <v>1</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>32</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7319,21 +7319,21 @@
         <v>26</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D89" t="n">
+        <v>9</v>
+      </c>
+      <c r="E89" t="n">
         <v>0</v>
       </c>
-      <c r="E89" t="n">
-        <v>7</v>
-      </c>
       <c r="F89" t="n">
-        <v>-7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -7349,13 +7349,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -7371,13 +7371,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -7385,21 +7385,21 @@
         <v>27</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -7407,43 +7407,43 @@
         <v>27</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -7451,21 +7451,21 @@
         <v>28</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -7473,21 +7473,43 @@
         <v>28</v>
       </c>
       <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>28</v>
+      </c>
+      <c r="B97" t="n">
         <v>3</v>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
         <v>4</v>
       </c>
-      <c r="F96" t="n">
-        <v>-4</v>
+      <c r="F97" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -635,12 +635,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -929,17 +929,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2065,22 +2065,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2145,27 +2145,27 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2175,22 +2175,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2242,22 +2242,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2389,12 +2389,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2566,17 +2566,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2606,17 +2606,17 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2653,12 +2653,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2768,12 +2768,12 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2880,22 +2880,22 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3134,12 +3134,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3159,22 +3159,22 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -3204,12 +3204,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3246,22 +3246,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3413,12 +3413,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -3530,12 +3530,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3600,27 +3600,27 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3702,17 +3702,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3732,17 +3732,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3767,27 +3767,27 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3919,17 +3919,17 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -3976,17 +3976,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4001,27 +4001,27 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4118,32 +4118,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4265,17 +4265,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4432,17 +4432,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -4569,22 +4569,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4659,12 +4659,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4726,17 +4726,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -4766,27 +4766,27 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4868,42 +4868,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5020,37 +5020,37 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -5060,17 +5060,17 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5080,22 +5080,22 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -5105,17 +5105,17 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -5172,17 +5172,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -5242,27 +5242,27 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -5277,12 +5277,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -5334,13 +5334,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33706</v>
+        <v>33649</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -590,27 +590,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -625,32 +625,32 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -660,27 +660,27 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -695,37 +695,37 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -787,17 +787,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -822,22 +822,22 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -852,17 +852,17 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -914,67 +914,67 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -989,27 +989,27 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1081,22 +1081,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -1178,132 +1178,132 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1330,22 +1330,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1360,27 +1360,27 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1400,17 +1400,17 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1472,117 +1472,117 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1597,17 +1597,17 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1629,22 +1629,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1664,17 +1664,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1689,37 +1689,37 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1811,17 +1811,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1881,17 +1881,17 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2100,27 +2100,27 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2135,37 +2135,37 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2175,27 +2175,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2207,12 +2207,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2262,17 +2262,17 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2282,67 +2282,67 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2359,47 +2359,47 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2409,52 +2409,52 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2474,22 +2474,22 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2551,17 +2551,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2586,32 +2586,32 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2621,12 +2621,12 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2663,27 +2663,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2698,22 +2698,22 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2728,42 +2728,42 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2778,12 +2778,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2795,57 +2795,57 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2910,22 +2910,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2942,12 +2942,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2957,27 +2957,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3022,62 +3022,62 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -3089,17 +3089,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3129,37 +3129,37 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3174,57 +3174,57 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -3241,117 +3241,117 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3361,17 +3361,17 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -3383,12 +3383,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3398,32 +3398,32 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3458,42 +3458,42 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3503,22 +3503,22 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3530,37 +3530,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3585,52 +3585,52 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -3645,22 +3645,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3687,17 +3687,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3712,12 +3712,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3732,57 +3732,57 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -3792,22 +3792,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3824,32 +3824,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3904,12 +3904,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -3924,27 +3924,27 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3971,22 +3971,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3996,47 +3996,47 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -4051,62 +4051,62 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -4133,27 +4133,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4168,22 +4168,22 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -4203,57 +4203,57 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -4265,22 +4265,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4290,12 +4290,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -4370,22 +4370,22 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4395,12 +4395,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4422,27 +4422,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4452,17 +4452,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -4477,12 +4477,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -4492,12 +4492,12 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -4507,12 +4507,12 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4594,12 +4594,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4619,37 +4619,37 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -4659,42 +4659,42 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -4706,12 +4706,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4726,42 +4726,42 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4776,17 +4776,17 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -4796,27 +4796,27 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4863,32 +4863,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4918,17 +4918,17 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -4953,22 +4953,22 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -5005,12 +5005,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5020,42 +5020,42 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5065,17 +5065,17 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -5085,32 +5085,32 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5120,22 +5120,22 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -5147,32 +5147,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -5222,42 +5222,42 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -5267,17 +5267,17 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -5334,13 +5334,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33649</v>
+        <v>34980</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -592,34 +592,34 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
@@ -631,34 +631,34 @@
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>2</v>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -683,28 +683,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -716,52 +716,52 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -783,58 +783,58 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -892,34 +892,34 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>4</v>
@@ -928,19 +928,19 @@
         <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="n">
         <v>4</v>
@@ -953,19 +953,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -974,10 +974,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -989,34 +989,34 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
         <v>2</v>
@@ -1025,16 +1025,16 @@
         <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1047,16 +1047,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1065,40 +1065,40 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1110,22 +1110,22 @@
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
         <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,49 +1138,49 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
@@ -1189,16 +1189,16 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
         <v>3</v>
@@ -1207,13 +1207,13 @@
         <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="n">
         <v>4</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
@@ -1265,25 +1265,25 @@
         <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         <v>4</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
         <v>2</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1323,64 +1323,64 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1411,82 +1411,82 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z11" t="n">
         <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1499,28 +1499,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -1529,58 +1529,58 @@
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
         <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z12" t="n">
         <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1590,88 +1590,88 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="n">
         <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA13" t="n">
         <v>4</v>
       </c>
       <c r="AB13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1684,34 +1684,34 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1729,13 +1729,13 @@
         <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
@@ -1744,19 +1744,19 @@
         <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="n">
         <v>4</v>
@@ -1778,43 +1778,43 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1835,22 +1835,22 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
         <v>4</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>4</v>
@@ -1863,16 +1863,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -1884,16 +1884,16 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -1914,37 +1914,37 @@
         <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
         <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1957,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
@@ -1978,19 +1978,19 @@
         <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
         <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
         <v>4</v>
@@ -2026,16 +2026,16 @@
         <v>2</v>
       </c>
       <c r="Z17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2048,67 +2048,67 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
         <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -2172,7 +2172,7 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
         <v>4</v>
@@ -2181,10 +2181,10 @@
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -2193,19 +2193,19 @@
         <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
         <v>4</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z19" t="n">
         <v>4</v>
@@ -2214,10 +2214,10 @@
         <v>4</v>
       </c>
       <c r="AB19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2230,13 +2230,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
@@ -2245,28 +2245,28 @@
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2275,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
@@ -2296,16 +2296,16 @@
         <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC20" t="n">
         <v>4</v>
@@ -2324,25 +2324,25 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -2351,25 +2351,25 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
         <v>4</v>
@@ -2381,22 +2381,22 @@
         <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC21" t="n">
         <v>4</v>
@@ -2421,67 +2421,67 @@
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
         <v>4</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
         <v>2</v>
@@ -2490,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
@@ -2509,76 +2509,76 @@
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
         <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>4</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
         <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>4</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -2591,16 +2591,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
@@ -2609,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -2624,22 +2624,22 @@
         <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -2651,10 +2651,10 @@
         <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
         <v>2</v>
@@ -2663,13 +2663,13 @@
         <v>2</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA24" t="n">
         <v>3</v>
       </c>
       <c r="AB24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC24" t="n">
         <v>4</v>
@@ -2682,22 +2682,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
@@ -2706,43 +2706,43 @@
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
         <v>4</v>
@@ -2751,13 +2751,13 @@
         <v>4</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB25" t="n">
         <v>2</v>
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -2797,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
@@ -2809,10 +2809,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -2824,7 +2824,7 @@
         <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
         <v>4</v>
@@ -2833,28 +2833,28 @@
         <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>2</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2864,19 +2864,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2888,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
@@ -2897,55 +2897,55 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
         <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>4</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2958,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>4</v>
@@ -2973,43 +2973,43 @@
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
         <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U28" t="n">
         <v>4</v>
@@ -3018,25 +3018,25 @@
         <v>4</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="n">
         <v>3</v>
       </c>
       <c r="Z28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3052,28 +3052,28 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
         <v>3</v>
@@ -3082,40 +3082,40 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
         <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X29" t="n">
         <v>2</v>
       </c>
       <c r="Y29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
         <v>2</v>
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="AB29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC29" t="n">
         <v>4</v>
@@ -3140,16 +3140,16 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3170,43 +3170,43 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
         <v>4</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3215,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3231,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -3243,34 +3243,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>4</v>
@@ -3279,25 +3279,25 @@
         <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W31" t="n">
         <v>4</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
         <v>4</v>
@@ -3309,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -3322,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>4</v>
@@ -3337,70 +3337,70 @@
         <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -3416,64 +3416,64 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
         <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>3</v>
@@ -3482,16 +3482,16 @@
         <v>3</v>
       </c>
       <c r="Z33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA33" t="n">
         <v>4</v>
       </c>
       <c r="AB33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3542,13 +3542,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23131</v>
+        <v>22340</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
@@ -3679,43 +3679,43 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3723,21 +3723,21 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3753,13 +3753,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3775,13 +3775,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3819,13 +3819,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3863,13 +3863,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3877,18 +3877,18 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -3896,87 +3896,87 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -3984,21 +3984,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>-1</v>
@@ -4006,51 +4006,51 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
         <v>7</v>
       </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
       <c r="F21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -4061,18 +4061,18 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
@@ -4105,98 +4105,98 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>-1</v>
@@ -4204,51 +4204,51 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -4314,21 +4314,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>-1</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
@@ -4369,18 +4369,18 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -4413,32 +4413,32 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -4446,95 +4446,95 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -4556,14 +4556,14 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -4578,29 +4578,29 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -4611,18 +4611,18 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -4633,84 +4633,84 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -4721,84 +4721,84 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B56" t="n">
         <v>3</v>
@@ -4809,18 +4809,18 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -4831,54 +4831,54 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -4886,131 +4886,131 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -5018,43 +5018,43 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -5062,442 +5062,24 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>23</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>9</v>
-      </c>
-      <c r="E69" t="n">
-        <v>7</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>23</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>23</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>7</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>23</v>
-      </c>
-      <c r="B72" t="n">
-        <v>3</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>3</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>24</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>10</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>24</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>4</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>24</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>10</v>
-      </c>
-      <c r="E75" t="n">
-        <v>7</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>24</v>
-      </c>
-      <c r="B76" t="n">
-        <v>3</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>3</v>
-      </c>
-      <c r="E76" t="n">
-        <v>4</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>25</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>25</v>
-      </c>
-      <c r="B78" t="n">
-        <v>3</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>3</v>
-      </c>
-      <c r="E78" t="n">
-        <v>4</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>26</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>9</v>
-      </c>
-      <c r="E79" t="n">
-        <v>7</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>26</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>3</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>26</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>10</v>
-      </c>
-      <c r="E81" t="n">
-        <v>7</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>26</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>3</v>
-      </c>
-      <c r="E82" t="n">
-        <v>4</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>27</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>8</v>
-      </c>
-      <c r="E83" t="n">
-        <v>7</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>27</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>2</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>27</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>7</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>27</v>
-      </c>
-      <c r="B86" t="n">
-        <v>3</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>3</v>
-      </c>
-      <c r="E86" t="n">
-        <v>4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>28</v>
-      </c>
-      <c r="B87" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>3</v>
-      </c>
-      <c r="E87" t="n">
-        <v>4</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -607,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -619,31 +619,31 @@
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
@@ -652,25 +652,25 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="n">
         <v>3</v>
       </c>
       <c r="AB2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -683,73 +683,73 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         <v>4</v>
       </c>
       <c r="AB3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -774,34 +774,34 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
@@ -810,34 +810,34 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
         <v>2</v>
@@ -849,10 +849,10 @@
         <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -865,76 +865,76 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>4</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="AC5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -953,31 +953,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -986,37 +986,37 @@
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
         <v>2</v>
@@ -1025,10 +1025,10 @@
         <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="n">
         <v>4</v>
@@ -1044,85 +1044,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
         <v>4</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1135,88 +1135,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
         <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
         <v>3</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -1241,40 +1241,40 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
         <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>
@@ -1286,16 +1286,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="n">
         <v>2</v>
@@ -1307,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -1335,70 +1335,70 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1429,61 +1429,61 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="n">
         <v>4</v>
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1517,70 +1517,70 @@
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>4</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1590,25 +1590,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1617,34 +1617,34 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
@@ -1653,22 +1653,22 @@
         <v>4</v>
       </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>4</v>
       </c>
       <c r="Y13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>4</v>
@@ -1684,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -1711,16 +1711,16 @@
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1729,40 +1729,40 @@
         <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
         <v>2</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1775,16 +1775,16 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1793,49 +1793,49 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
         <v>4</v>
@@ -1844,16 +1844,16 @@
         <v>2</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1866,25 +1866,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -1893,58 +1893,58 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1960,82 +1960,82 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>4</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2045,46 +2045,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2093,40 +2093,40 @@
         <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2136,16 +2136,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
@@ -2154,70 +2154,70 @@
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="n">
         <v>4</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2236,16 +2236,16 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -2254,16 +2254,16 @@
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -2272,16 +2272,16 @@
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2290,25 +2290,25 @@
         <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z20" t="n">
         <v>4</v>
       </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2318,88 +2318,88 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2409,13 +2409,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -2427,22 +2427,22 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
@@ -2451,10 +2451,10 @@
         <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2463,34 +2463,34 @@
         <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2500,28 +2500,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -2533,19 +2533,19 @@
         <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>2</v>
@@ -2557,28 +2557,28 @@
         <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
         <v>4</v>
       </c>
       <c r="AB23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -2591,40 +2591,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
         <v>3</v>
@@ -2633,13 +2633,13 @@
         <v>4</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -2654,16 +2654,16 @@
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA24" t="n">
         <v>3</v>
@@ -2672,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="AC24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2682,28 +2682,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -2712,43 +2712,43 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
         <v>4</v>
       </c>
       <c r="X25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2773,28 +2773,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2803,49 +2803,49 @@
         <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
         <v>4</v>
       </c>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>2</v>
@@ -2867,37 +2867,37 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
         <v>3</v>
@@ -2906,46 +2906,46 @@
         <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
         <v>4</v>
       </c>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2967,34 +2967,34 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3003,40 +3003,40 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>4</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3046,13 +3046,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -3061,73 +3061,73 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
         <v>2</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3140,70 +3140,70 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
         <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3212,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3228,22 +3228,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3279,10 +3279,10 @@
         <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
@@ -3291,25 +3291,25 @@
         <v>4</v>
       </c>
       <c r="W31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3319,76 +3319,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
         <v>4</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>3</v>
@@ -3397,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="AB32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC32" t="n">
         <v>3</v>
@@ -3413,55 +3413,55 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
         <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
         <v>2</v>
@@ -3470,28 +3470,28 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22340</v>
+        <v>26627</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>197</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3621,13 +3621,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3635,21 +3635,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3657,26 +3657,26 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -3709,18 +3709,18 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -3731,18 +3731,18 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -3753,13 +3753,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -3767,87 +3767,87 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -3855,26 +3855,26 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -3885,18 +3885,18 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -3918,87 +3918,87 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>-1</v>
@@ -4006,87 +4006,87 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>9</v>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -4094,29 +4094,29 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
@@ -4160,21 +4160,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
         <v>-1</v>
@@ -4182,73 +4182,73 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -4303,32 +4303,32 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>-1</v>
@@ -4336,109 +4336,109 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -4446,95 +4446,95 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -4545,62 +4545,62 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -4611,18 +4611,18 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -4633,54 +4633,54 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -4688,14 +4688,14 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -4710,7 +4710,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -4721,69 +4721,69 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -4798,287 +4798,1101 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
+        <v>18</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>19</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>19</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>6</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>19</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>20</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>7</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>20</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>20</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>21</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>21</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>21</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>21</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>22</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>22</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>22</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>6</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>23</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>23</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>23</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>24</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>13</v>
+      </c>
+      <c r="E87" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>24</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>24</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>6</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>24</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>25</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>25</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>25</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>6</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>25</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>26</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>26</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>26</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>26</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>27</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>27</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>27</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>27</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
         <v>28</v>
       </c>
-      <c r="B68" t="n">
-        <v>2</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>8</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>11</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>28</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>28</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
         <v>1</v>
       </c>
     </row>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -589,40 +589,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
@@ -631,46 +631,46 @@
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
         <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -680,88 +680,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -771,88 +771,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W4" t="n">
         <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -862,88 +862,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -953,40 +953,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>4</v>
@@ -995,46 +995,46 @@
         <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1044,88 +1044,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>4</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1135,31 +1135,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1168,46 +1168,46 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="n">
         <v>3</v>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1226,85 +1226,85 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="n">
         <v>4</v>
@@ -1317,88 +1317,88 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>4</v>
       </c>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>4</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1408,88 +1408,88 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
         <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>4</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1499,88 +1499,88 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
         <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA12" t="n">
         <v>4</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1590,88 +1590,88 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>4</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1681,88 +1681,88 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
         <v>4</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1793,67 +1793,67 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1863,25 +1863,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -1890,61 +1890,61 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1954,40 +1954,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -1999,19 +1999,19 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>4</v>
@@ -2020,22 +2020,22 @@
         <v>4</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2045,22 +2045,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
@@ -2069,46 +2069,46 @@
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
         <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X18" t="n">
         <v>4</v>
@@ -2117,16 +2117,16 @@
         <v>4</v>
       </c>
       <c r="Z18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2136,16 +2136,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
@@ -2154,13 +2154,13 @@
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -2169,16 +2169,16 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
         <v>4</v>
@@ -2187,37 +2187,37 @@
         <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2227,88 +2227,88 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z20" t="n">
         <v>4</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2318,34 +2318,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -2354,16 +2354,16 @@
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
         <v>4</v>
@@ -2372,34 +2372,34 @@
         <v>4</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2409,19 +2409,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -2430,67 +2430,67 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>4</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2500,88 +2500,88 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>4</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
         <v>4</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -2591,88 +2591,88 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2682,88 +2682,88 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2773,88 +2773,88 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
         <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X26" t="n">
         <v>4</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2867,22 +2867,22 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
@@ -2891,43 +2891,43 @@
         <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -2939,13 +2939,13 @@
         <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2955,28 +2955,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -2985,22 +2985,22 @@
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
         <v>4</v>
@@ -3009,34 +3009,34 @@
         <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X28" t="n">
         <v>4</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3046,88 +3046,88 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
         <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3137,31 +3137,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
@@ -3170,55 +3170,55 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3228,28 +3228,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
@@ -3258,55 +3258,55 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
         <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
         <v>3</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>4</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC31" t="n">
         <v>4</v>
@@ -3319,88 +3319,88 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
         <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X32" t="n">
         <v>4</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3410,88 +3410,88 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
         <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z33" t="n">
         <v>4</v>
       </c>
       <c r="AA33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3542,19 +3542,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26627</v>
+        <v>22152</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3621,13 +3621,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3764,24 +3764,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -3789,21 +3789,21 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -3811,21 +3811,21 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -3833,43 +3833,43 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14">
@@ -3877,21 +3877,21 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -3899,21 +3899,21 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3921,18 +3921,18 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>-1</v>
@@ -3940,24 +3940,24 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18">
@@ -3965,21 +3965,21 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3987,65 +3987,65 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -4053,21 +4053,21 @@
         <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -4075,43 +4075,43 @@
         <v>6</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -4119,11 +4119,11 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -4141,33 +4141,33 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -4182,24 +4182,24 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -4207,21 +4207,21 @@
         <v>8</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4229,43 +4229,43 @@
         <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="32">
@@ -4273,21 +4273,21 @@
         <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4295,21 +4295,21 @@
         <v>9</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -4317,18 +4317,18 @@
         <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>-1</v>
@@ -4336,24 +4336,24 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -4369,13 +4369,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4391,13 +4391,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="38">
@@ -4413,13 +4413,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="39">
@@ -4427,21 +4427,21 @@
         <v>11</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -4449,21 +4449,21 @@
         <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="41">
@@ -4471,43 +4471,43 @@
         <v>11</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -4515,21 +4515,21 @@
         <v>12</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -4537,21 +4537,21 @@
         <v>12</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4559,18 +4559,18 @@
         <v>12</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>-1</v>
@@ -4578,21 +4578,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
@@ -4603,11 +4603,11 @@
         <v>13</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -4625,33 +4625,33 @@
         <v>13</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -4666,24 +4666,24 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -4691,21 +4691,21 @@
         <v>14</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="52">
@@ -4713,33 +4713,33 @@
         <v>14</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -4754,24 +4754,24 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -4779,65 +4779,65 @@
         <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -4845,65 +4845,65 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -4911,21 +4911,21 @@
         <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -4933,65 +4933,65 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -4999,11 +4999,11 @@
         <v>18</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -5021,65 +5021,65 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -5087,21 +5087,21 @@
         <v>19</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -5109,65 +5109,65 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -5175,21 +5175,21 @@
         <v>20</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="74">
@@ -5197,65 +5197,65 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -5263,11 +5263,11 @@
         <v>21</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -5285,65 +5285,65 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="81">
@@ -5351,26 +5351,26 @@
         <v>22</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -5381,18 +5381,18 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B83" t="n">
         <v>2</v>
@@ -5417,33 +5417,33 @@
         <v>23</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -5458,24 +5458,24 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -5483,21 +5483,21 @@
         <v>24</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="88">
@@ -5505,33 +5505,33 @@
         <v>24</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -5546,24 +5546,24 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -5571,21 +5571,21 @@
         <v>25</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
@@ -5593,48 +5593,48 @@
         <v>25</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
         <v>7</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -5645,18 +5645,18 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -5667,18 +5667,18 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -5689,18 +5689,18 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B97" t="n">
         <v>2</v>
@@ -5722,178 +5722,90 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D98" t="n">
         <v>6</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>6</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D100" t="n">
         <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>27</v>
-      </c>
-      <c r="B102" t="n">
-        <v>3</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>5</v>
-      </c>
-      <c r="E102" t="n">
-        <v>4</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>28</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>11</v>
-      </c>
-      <c r="E103" t="n">
-        <v>7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>28</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>4</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>28</v>
-      </c>
-      <c r="B105" t="n">
-        <v>3</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>5</v>
-      </c>
-      <c r="E105" t="n">
-        <v>4</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -643,19 +643,19 @@
         <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W2" t="n">
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>4</v>
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
         <v>4</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="AC4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -871,16 +871,16 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -895,16 +895,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
@@ -922,28 +922,28 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -971,13 +971,13 @@
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -998,25 +998,25 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
         <v>1</v>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC6" t="n">
         <v>4</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1098,34 +1098,34 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="n">
         <v>4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1183,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
         <v>2</v>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="AB8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC8" t="n">
         <v>2</v>
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1250,22 +1250,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>4</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1301,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC9" t="n">
         <v>4</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="n">
         <v>4</v>
@@ -1411,16 +1411,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1447,16 +1447,16 @@
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1468,28 +1468,28 @@
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="n">
         <v>4</v>
       </c>
       <c r="AC11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -1626,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
         <v>4</v>
@@ -1644,19 +1644,19 @@
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
         <v>4</v>
@@ -1665,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1756,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="n">
         <v>4</v>
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="AB15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC15" t="n">
         <v>4</v>
@@ -1866,25 +1866,25 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -1899,19 +1899,19 @@
         <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>1</v>
@@ -1957,16 +1957,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -2011,22 +2011,22 @@
         <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>2</v>
@@ -2035,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="AC17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2048,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
@@ -2069,10 +2069,10 @@
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>4</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2148,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -2181,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
         <v>4</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U19" t="n">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -2260,19 +2260,19 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2354,16 +2354,16 @@
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
         <v>4</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
         <v>1</v>
@@ -2390,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA21" t="n">
         <v>4</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
@@ -2424,16 +2424,16 @@
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -2442,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
         <v>2</v>
@@ -2451,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
         <v>4</v>
@@ -2469,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>4</v>
@@ -2478,10 +2478,10 @@
         <v>4</v>
       </c>
       <c r="Y22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
         <v>2</v>
@@ -2490,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="AC22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
         <v>4</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>4</v>
@@ -2609,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
@@ -2639,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2691,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -2745,16 +2745,16 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2776,7 +2776,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>4</v>
@@ -2791,28 +2791,28 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2821,16 +2821,16 @@
         <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -2845,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2897,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
         <v>2</v>
@@ -2912,25 +2912,25 @@
         <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
         <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
         <v>4</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y27" t="n">
         <v>4</v>
@@ -2955,28 +2955,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -3067,10 +3067,10 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
@@ -3082,22 +3082,22 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
         <v>4</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y29" t="n">
         <v>2</v>
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="AB29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC29" t="n">
         <v>4</v>
@@ -3146,7 +3146,7 @@
         <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -3164,16 +3164,16 @@
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
         <v>1</v>
@@ -3185,13 +3185,13 @@
         <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>1</v>
@@ -3212,13 +3212,13 @@
         <v>4</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB30" t="n">
         <v>1</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3228,13 +3228,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3279,10 +3279,10 @@
         <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>1</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
         <v>4</v>
@@ -3328,10 +3328,10 @@
         <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -3413,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
@@ -3422,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3443,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>1</v>
@@ -3464,13 +3464,13 @@
         <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U33" t="n">
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
         <v>2</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22152</v>
+        <v>22048</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3657,43 +3657,43 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -3701,21 +3701,21 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3723,21 +3723,21 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -3745,18 +3745,18 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>-1</v>
@@ -3764,21 +3764,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>-1</v>
@@ -3789,21 +3789,21 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -3811,21 +3811,21 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
         <v>7</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -3833,43 +3833,43 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -3877,21 +3877,21 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -3899,21 +3899,21 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -3921,43 +3921,43 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -3965,84 +3965,84 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>-1</v>
@@ -4053,33 +4053,33 @@
         <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -4094,24 +4094,24 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -4119,11 +4119,11 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -4141,65 +4141,65 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -4207,65 +4207,65 @@
         <v>8</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -4273,21 +4273,21 @@
         <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -4295,33 +4295,33 @@
         <v>9</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -4336,24 +4336,24 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -4361,21 +4361,21 @@
         <v>10</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37">
@@ -4383,43 +4383,43 @@
         <v>10</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -4457,13 +4457,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -4501,13 +4501,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -4523,13 +4523,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
@@ -4589,13 +4589,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="48">
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
@@ -4655,13 +4655,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -4735,21 +4735,21 @@
         <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -4757,43 +4757,43 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -4801,21 +4801,21 @@
         <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -4823,21 +4823,21 @@
         <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -4875,13 +4875,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -4897,13 +4897,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -4919,13 +4919,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="62">
@@ -4941,13 +4941,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -5029,13 +5029,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="67">
@@ -5043,21 +5043,21 @@
         <v>19</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -5065,21 +5065,21 @@
         <v>19</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -5087,43 +5087,43 @@
         <v>19</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -5131,21 +5131,21 @@
         <v>20</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -5153,65 +5153,65 @@
         <v>20</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -5219,21 +5219,21 @@
         <v>21</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="76">
@@ -5241,33 +5241,33 @@
         <v>21</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -5282,24 +5282,24 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -5307,131 +5307,131 @@
         <v>22</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>6</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="85">
@@ -5439,87 +5439,87 @@
         <v>24</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D86" t="n">
+        <v>8</v>
+      </c>
+      <c r="E86" t="n">
         <v>7</v>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
       <c r="F86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
@@ -5527,26 +5527,26 @@
         <v>25</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -5568,51 +5568,51 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -5623,18 +5623,18 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -5645,18 +5645,18 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -5667,18 +5667,18 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -5689,122 +5689,34 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>28</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>6</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>28</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>6</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>28</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>6</v>
-      </c>
-      <c r="E100" t="n">
-        <v>7</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>28</v>
-      </c>
-      <c r="B101" t="n">
-        <v>3</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>3</v>
-      </c>
-      <c r="E101" t="n">
-        <v>4</v>
-      </c>
-      <c r="F101" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -610,13 +610,13 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -637,34 +637,34 @@
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="n">
         <v>4</v>
@@ -692,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>4</v>
@@ -731,16 +731,16 @@
         <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>4</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -792,40 +792,40 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
@@ -834,25 +834,25 @@
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>4</v>
       </c>
       <c r="AC4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -874,13 +874,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -889,22 +889,22 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
@@ -916,34 +916,34 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
         <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="n">
         <v>2</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -953,40 +953,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
         <v>4</v>
@@ -995,43 +995,43 @@
         <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="n">
         <v>4</v>
@@ -1047,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
@@ -1110,22 +1110,22 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
         <v>4</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -1150,13 +1150,13 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1174,22 +1174,22 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1198,10 +1198,10 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
         <v>4</v>
@@ -1210,13 +1210,13 @@
         <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>2</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -1253,13 +1253,13 @@
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>4</v>
@@ -1271,22 +1271,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB9" t="n">
         <v>4</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
         <v>4</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1377,22 +1377,22 @@
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>4</v>
@@ -1411,16 +1411,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -1429,16 +1429,16 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1447,19 +1447,19 @@
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1468,28 +1468,28 @@
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
@@ -1538,16 +1538,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -1556,13 +1556,13 @@
         <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
@@ -1602,16 +1602,16 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -1623,19 +1623,19 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
         <v>4</v>
@@ -1644,19 +1644,19 @@
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="n">
         <v>4</v>
@@ -1665,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -1681,34 +1681,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
@@ -1720,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -1738,25 +1738,25 @@
         <v>4</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>4</v>
       </c>
       <c r="AA14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
@@ -1790,19 +1790,19 @@
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -1814,25 +1814,25 @@
         <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>4</v>
@@ -1863,28 +1863,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
         <v>4</v>
@@ -1941,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1960,16 +1960,16 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
@@ -1984,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -2002,37 +2002,37 @@
         <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC17" t="n">
         <v>4</v>
@@ -2051,16 +2051,16 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>4</v>
@@ -2093,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>4</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2145,79 +2145,79 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
         <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2227,10 +2227,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -2254,22 +2254,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>2</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="AA20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB20" t="n">
         <v>4</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2318,10 +2318,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -2333,19 +2333,19 @@
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -2354,52 +2354,52 @@
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
         <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
         <v>4</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA21" t="n">
         <v>4</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
@@ -2421,19 +2421,19 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
@@ -2442,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
         <v>2</v>
@@ -2451,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>4</v>
@@ -2466,10 +2466,10 @@
         <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>4</v>
@@ -2487,10 +2487,10 @@
         <v>2</v>
       </c>
       <c r="AB22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>4</v>
@@ -2521,16 +2521,16 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
@@ -2548,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
         <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>4</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
         <v>4</v>
@@ -2597,19 +2597,19 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
@@ -2618,10 +2618,10 @@
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
@@ -2630,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2639,13 +2639,13 @@
         <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U24" t="n">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>4</v>
@@ -2666,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
         <v>2</v>
       </c>
       <c r="AC24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2691,22 +2691,22 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -2748,13 +2748,13 @@
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2782,37 +2782,37 @@
         <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2821,19 +2821,19 @@
         <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
         <v>4</v>
@@ -2842,19 +2842,19 @@
         <v>4</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>4</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2873,16 +2873,16 @@
         <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
@@ -2894,10 +2894,10 @@
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
         <v>2</v>
@@ -2915,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
         <v>4</v>
@@ -2924,22 +2924,22 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
         <v>4</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="n">
         <v>2</v>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
@@ -2964,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2976,28 +2976,28 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
         <v>4</v>
@@ -3009,10 +3009,10 @@
         <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>4</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -3046,16 +3046,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
@@ -3067,16 +3067,16 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
@@ -3085,19 +3085,19 @@
         <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>4</v>
@@ -3109,13 +3109,13 @@
         <v>4</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X29" t="n">
         <v>3</v>
       </c>
       <c r="Y29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
         <v>2</v>
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="AB29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
         <v>4</v>
@@ -3137,37 +3137,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3176,34 +3176,34 @@
         <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
         <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y30" t="n">
         <v>4</v>
@@ -3215,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="AB30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC30" t="n">
         <v>2</v>
@@ -3228,22 +3228,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
@@ -3258,16 +3258,16 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3276,16 +3276,16 @@
         <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>4</v>
@@ -3297,16 +3297,16 @@
         <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA31" t="n">
         <v>3</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
         <v>4</v>
@@ -3328,10 +3328,10 @@
         <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3349,16 +3349,16 @@
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3376,10 +3376,10 @@
         <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>4</v>
@@ -3391,16 +3391,16 @@
         <v>4</v>
       </c>
       <c r="Z32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
         <v>2</v>
       </c>
       <c r="AC32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
@@ -3422,13 +3422,13 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -3443,19 +3443,19 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>4</v>
@@ -3464,34 +3464,34 @@
         <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
         <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z33" t="n">
         <v>4</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22048</v>
+        <v>22450</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3635,21 +3635,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3701,21 +3701,21 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3723,43 +3723,43 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3767,48 +3767,48 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -3819,18 +3819,18 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -3841,18 +3841,18 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -3863,40 +3863,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -3907,18 +3907,18 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -3929,76 +3929,76 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
         <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>-1</v>
@@ -4006,161 +4006,161 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="n">
         <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
         <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
         <v>7</v>
       </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4</v>
-      </c>
       <c r="F26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -4182,95 +4182,95 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>8</v>
       </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2</v>
-      </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
         <v>1</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B32" t="n">
         <v>2</v>
@@ -4281,84 +4281,84 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" t="n">
         <v>1</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
@@ -4369,84 +4369,84 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B40" t="n">
         <v>2</v>
@@ -4457,47 +4457,47 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -4512,29 +4512,29 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" t="n">
         <v>1</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>6</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B44" t="n">
         <v>2</v>
@@ -4545,18 +4545,18 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
@@ -4567,40 +4567,40 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="n">
         <v>1</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>5</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B47" t="n">
         <v>2</v>
@@ -4611,1113 +4611,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>13</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" t="n">
-        <v>4</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>14</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>8</v>
-      </c>
-      <c r="E49" t="n">
-        <v>7</v>
-      </c>
-      <c r="F49" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>14</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>14</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>6</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>14</v>
-      </c>
-      <c r="B52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>15</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>15</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" t="n">
-        <v>7</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>16</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>8</v>
-      </c>
-      <c r="E55" t="n">
-        <v>7</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>16</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>16</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>6</v>
-      </c>
-      <c r="E57" t="n">
-        <v>7</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>16</v>
-      </c>
-      <c r="B58" t="n">
-        <v>3</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>17</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>6</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>17</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>17</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>5</v>
-      </c>
-      <c r="E61" t="n">
-        <v>7</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>17</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>3</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>18</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>8</v>
-      </c>
-      <c r="E63" t="n">
-        <v>7</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>18</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>6</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>18</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>6</v>
-      </c>
-      <c r="E65" t="n">
-        <v>7</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>18</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>19</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>3</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>19</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>6</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>19</v>
-      </c>
-      <c r="B69" t="n">
-        <v>3</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>5</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>20</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>20</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>4</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>20</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>6</v>
-      </c>
-      <c r="E72" t="n">
-        <v>7</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>21</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>6</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>21</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>6</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>21</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>7</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>21</v>
-      </c>
-      <c r="B76" t="n">
-        <v>3</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>4</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>22</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>6</v>
-      </c>
-      <c r="E77" t="n">
-        <v>7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>22</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>6</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>22</v>
-      </c>
-      <c r="B79" t="n">
-        <v>3</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>23</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>5</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>23</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>6</v>
-      </c>
-      <c r="E81" t="n">
-        <v>7</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>24</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>4</v>
-      </c>
-      <c r="E82" t="n">
-        <v>7</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>24</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>6</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>24</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>4</v>
-      </c>
-      <c r="E84" t="n">
-        <v>7</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>24</v>
-      </c>
-      <c r="B85" t="n">
-        <v>3</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>2</v>
-      </c>
-      <c r="E85" t="n">
-        <v>4</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>25</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>7</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>25</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>5</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>25</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>6</v>
-      </c>
-      <c r="E88" t="n">
-        <v>7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>25</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>4</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>26</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>26</v>
-      </c>
-      <c r="B91" t="n">
-        <v>3</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>5</v>
-      </c>
-      <c r="E91" t="n">
-        <v>4</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>27</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>6</v>
-      </c>
-      <c r="E92" t="n">
-        <v>7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>27</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>6</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>27</v>
-      </c>
-      <c r="B94" t="n">
-        <v>3</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" t="n">
-        <v>4</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>28</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>6</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>28</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>5</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>28</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>3</v>
-      </c>
-      <c r="E97" t="n">
-        <v>4</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -589,88 +589,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -680,88 +680,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -771,88 +771,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -862,88 +862,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -953,88 +953,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1044,88 +1044,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,88 +1135,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1226,88 +1226,88 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,88 +1317,88 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1408,88 +1408,88 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,88 +1499,88 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1590,88 +1590,88 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1681,88 +1681,88 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1772,88 +1772,88 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1863,88 +1863,88 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1954,88 +1954,88 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2045,88 +2045,88 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2136,88 +2136,88 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2227,88 +2227,88 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2318,88 +2318,88 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2409,88 +2409,88 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2500,88 +2500,88 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2591,88 +2591,88 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2682,88 +2682,88 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2773,88 +2773,88 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2864,88 +2864,88 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2955,88 +2955,88 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3046,88 +3046,88 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3137,88 +3137,88 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -3228,88 +3228,88 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3319,88 +3319,88 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3410,88 +3410,88 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -595,13 +595,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -637,22 +637,22 @@
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
         <v>4</v>
@@ -661,10 +661,10 @@
         <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -722,25 +722,25 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -792,67 +792,67 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
         <v>4</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -865,46 +865,46 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>3</v>
@@ -931,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>3</v>
       </c>
       <c r="AC5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -953,19 +953,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -974,64 +974,64 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -1083,22 +1083,22 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
         <v>3</v>
@@ -1198,10 +1198,10 @@
         <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1226,19 +1226,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1271,37 +1271,37 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X9" t="n">
         <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1368,22 +1368,22 @@
         <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>3</v>
@@ -1420,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1447,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1468,25 +1468,25 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1538,16 +1538,16 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>3</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
@@ -1590,22 +1590,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1626,13 +1626,13 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
@@ -1641,37 +1641,37 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1681,55 +1681,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1741,16 +1741,16 @@
         <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1775,13 +1775,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1793,16 +1793,16 @@
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1832,28 +1832,28 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y15" t="n">
         <v>3</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1863,13 +1863,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1878,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1902,13 +1902,13 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
@@ -1981,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
         <v>3</v>
@@ -2020,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -2060,25 +2060,25 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA18" t="n">
         <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -2154,49 +2154,49 @@
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2254,22 +2254,22 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>1</v>
@@ -2299,16 +2299,16 @@
         <v>3</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2321,31 +2321,31 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -2363,25 +2363,25 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>3</v>
@@ -2390,16 +2390,16 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2460,16 +2460,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
         <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC22" t="n">
         <v>3</v>
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
@@ -2548,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
@@ -2630,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
         <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
         <v>3</v>
@@ -2654,7 +2654,7 @@
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2666,13 +2666,13 @@
         <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2682,31 +2682,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2742,28 +2742,28 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
         <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
         <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2785,13 +2785,13 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2821,19 +2821,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
         <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC26" t="n">
         <v>3</v>
@@ -2873,31 +2873,31 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
         <v>3</v>
@@ -2912,16 +2912,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>3</v>
@@ -2933,19 +2933,19 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
         <v>3</v>
       </c>
       <c r="AC27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2970,34 +2970,34 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="n">
         <v>1</v>
@@ -3049,13 +3049,13 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -3064,40 +3064,40 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -3109,22 +3109,22 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -3137,52 +3137,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
         <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
         <v>3</v>
@@ -3191,16 +3191,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
         <v>4</v>
@@ -3212,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3276,16 +3276,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3297,16 +3297,16 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA31" t="n">
         <v>4</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3349,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3376,31 +3376,31 @@
         <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB32" t="n">
         <v>3</v>
       </c>
       <c r="AC32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -3410,25 +3410,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -3443,19 +3443,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3464,19 +3464,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y33" t="n">
         <v>3</v>
@@ -3485,13 +3485,13 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22450</v>
+        <v>22296</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3613,99 +3613,99 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3720,51 +3720,51 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -3775,142 +3775,142 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>6</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -3918,87 +3918,87 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>5</v>
-      </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>-1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -4028,90 +4028,90 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -4119,48 +4119,48 @@
         <v>14</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -4171,40 +4171,40 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
@@ -4215,62 +4215,62 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B32" t="n">
         <v>2</v>
@@ -4281,84 +4281,84 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B36" t="n">
         <v>2</v>
@@ -4369,106 +4369,106 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -4490,29 +4490,29 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -4523,101 +4523,541 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>21</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>21</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>22</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>22</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>22</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>22</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>23</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>24</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>24</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>24</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>25</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>25</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>26</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>26</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
         <v>27</v>
       </c>
-      <c r="B47" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>27</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>28</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>28</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>28</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D66" t="n">
+        <v>6</v>
+      </c>
+      <c r="E66" t="n">
         <v>7</v>
       </c>
-      <c r="F47" t="n">
-        <v>1</v>
+      <c r="F66" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>28</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -592,34 +592,34 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -631,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
         <v>4</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -692,22 +692,22 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -813,40 +813,40 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
         <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -953,19 +953,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -974,40 +974,40 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
         <v>3</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -1083,13 +1083,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
@@ -1138,25 +1138,25 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1168,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1253,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -1365,16 +1365,16 @@
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z10" t="n">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1474,19 +1474,19 @@
         <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
         <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1617,49 +1617,49 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1702,34 +1702,34 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -1747,10 +1747,10 @@
         <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1775,13 +1775,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1790,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1832,28 +1832,28 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
         <v>3</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1905,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
@@ -1981,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB17" t="n">
         <v>3</v>
@@ -2048,25 +2048,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
         <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2142,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2169,34 +2169,34 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2227,13 +2227,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2254,19 +2254,19 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
         <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2321,13 +2321,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2372,28 +2372,28 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
         <v>3</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
         <v>1</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2463,13 +2463,13 @@
         <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA22" t="n">
         <v>4</v>
       </c>
       <c r="AB22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2506,10 +2506,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -2597,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2624,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
         <v>4</v>
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2666,13 +2666,13 @@
         <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB24" t="n">
         <v>4</v>
       </c>
       <c r="AC24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2742,28 +2742,28 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
         <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2782,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2821,19 +2821,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC26" t="n">
         <v>3</v>
@@ -2876,34 +2876,34 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2936,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC27" t="n">
         <v>4</v>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2985,19 +2985,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3049,13 +3049,13 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -3064,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -3109,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3149,58 +3149,58 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X30" t="n">
         <v>4</v>
@@ -3212,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3276,16 +3276,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z31" t="n">
         <v>3</v>
@@ -3306,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="AB31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -3319,25 +3319,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3349,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
         <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3370,34 +3370,34 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U32" t="n">
         <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC32" t="n">
         <v>4</v>
@@ -3410,31 +3410,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3443,19 +3443,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3464,34 +3464,34 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22296</v>
+        <v>22199</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3610,46 +3610,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -3657,18 +3657,18 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>-1</v>
@@ -3679,21 +3679,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6">
@@ -3701,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3709,35 +3709,35 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
         <v>8</v>
       </c>
-      <c r="E6" t="n">
-        <v>7</v>
-      </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3745,21 +3745,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -3767,21 +3767,21 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
         <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -3789,43 +3789,43 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3833,87 +3833,87 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
         <v>8</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
         <v>8</v>
       </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7</v>
-      </c>
       <c r="F14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -3921,21 +3921,21 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
@@ -3943,21 +3943,21 @@
         <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -3965,21 +3965,21 @@
         <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -3987,21 +3987,21 @@
         <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
@@ -4009,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4017,10 +4017,10 @@
         </is>
       </c>
       <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
         <v>8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -4031,51 +4031,51 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -4083,35 +4083,35 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25">
@@ -4119,18 +4119,18 @@
         <v>14</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
         <v>-2</v>
@@ -4145,14 +4145,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>-1</v>
@@ -4163,7 +4163,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4171,10 +4171,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
         <v>-1</v>
@@ -4185,29 +4185,29 @@
         <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4215,21 +4215,21 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>-1</v>
@@ -4248,65 +4248,65 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
         <v>-1</v>
@@ -4314,10 +4314,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4325,76 +4325,76 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
         <v>-1</v>
@@ -4402,65 +4402,65 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F40" t="n">
         <v>-1</v>
@@ -4468,54 +4468,54 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="n">
         <v>8</v>
       </c>
-      <c r="E41" t="n">
-        <v>7</v>
-      </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>-1</v>
@@ -4534,65 +4534,65 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
         <v>-1</v>
@@ -4600,32 +4600,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -4633,10 +4633,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
         <v>-1</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -4655,32 +4655,32 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
         <v>-1</v>
@@ -4688,32 +4688,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -4721,342 +4721,12 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F52" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>22</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>3</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>23</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>24</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>6</v>
-      </c>
-      <c r="E55" t="n">
-        <v>7</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>24</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>4</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>24</v>
-      </c>
-      <c r="B57" t="n">
-        <v>3</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>25</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>25</v>
-      </c>
-      <c r="B59" t="n">
-        <v>3</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>3</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>26</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>7</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>6</v>
-      </c>
-      <c r="E61" t="n">
-        <v>7</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>6</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>27</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>3</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>28</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>6</v>
-      </c>
-      <c r="E64" t="n">
-        <v>7</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>28</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>6</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>28</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>6</v>
-      </c>
-      <c r="E66" t="n">
-        <v>7</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>28</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>3</v>
-      </c>
-      <c r="E67" t="n">
-        <v>4</v>
-      </c>
-      <c r="F67" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -601,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>1</v>
@@ -2008,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="AB17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -2387,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC21" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
@@ -3164,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>4</v>
       </c>
       <c r="X30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -3542,13 +3542,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22199</v>
+        <v>21776</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3874,7 +3874,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -3885,18 +3885,18 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -3943,18 +3943,18 @@
         <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>-1</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
         <v>4</v>
@@ -4006,46 +4006,46 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22">
@@ -4053,70 +4053,70 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D22" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
         <v>8</v>
       </c>
-      <c r="E22" t="n">
-        <v>5</v>
-      </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -4127,18 +4127,18 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
@@ -4149,18 +4149,18 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
@@ -4193,47 +4193,47 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -4248,7 +4248,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
@@ -4259,13 +4259,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32">
@@ -4273,26 +4273,26 @@
         <v>17</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
@@ -4314,29 +4314,29 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" t="n">
         <v>3</v>
@@ -4361,43 +4361,43 @@
         <v>19</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
         <v>8</v>
       </c>
-      <c r="E36" t="n">
-        <v>5</v>
-      </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4405,18 +4405,18 @@
         <v>20</v>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -4424,24 +4424,24 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
       </c>
       <c r="F39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="40">
@@ -4449,11 +4449,11 @@
         <v>21</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -4501,32 +4501,32 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
         <v>-1</v>
@@ -4537,21 +4537,21 @@
         <v>24</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="45">
@@ -4559,40 +4559,40 @@
         <v>24</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>-1</v>
@@ -4603,21 +4603,21 @@
         <v>26</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
@@ -4625,43 +4625,43 @@
         <v>26</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D49" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" t="n">
         <v>8</v>
       </c>
-      <c r="E49" t="n">
-        <v>5</v>
-      </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -4688,24 +4688,24 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4713,11 +4713,11 @@
         <v>28</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -4727,6 +4727,28 @@
         <v>8</v>
       </c>
       <c r="F52" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>28</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -843,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>3</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>3</v>
@@ -2011,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3542,13 +3542,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21776</v>
+        <v>21775</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4193,32 +4193,32 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>-1</v>
@@ -4229,11 +4229,11 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -4248,7 +4248,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
@@ -4259,35 +4259,35 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
@@ -4295,11 +4295,11 @@
         <v>17</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -4317,65 +4317,65 @@
         <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -4383,43 +4383,43 @@
         <v>19</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -4427,33 +4427,33 @@
         <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
       </c>
       <c r="F39" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -4468,14 +4468,14 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -4490,7 +4490,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" t="n">
         <v>3</v>
@@ -4515,18 +4515,18 @@
         <v>23</v>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>-1</v>
@@ -4534,24 +4534,24 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
@@ -4559,11 +4559,11 @@
         <v>24</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -4581,40 +4581,40 @@
         <v>24</v>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>-1</v>
@@ -4622,36 +4622,36 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
         <v>8</v>
       </c>
-      <c r="E48" t="n">
-        <v>5</v>
-      </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -4666,24 +4666,24 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -4691,33 +4691,33 @@
         <v>27</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -4732,23 +4732,67 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
+        <v>27</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>28</v>
       </c>
-      <c r="B53" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" t="inlineStr">
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>7</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E55" t="n">
         <v>8</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F55" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/CASE_E_output_A.xlsx
+++ b/CASE_E_output_A.xlsx
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -843,13 +843,13 @@
         <v>3</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>3</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC5" t="n">
         <v>3</v>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1004,13 +1004,13 @@
         <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>3</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="n">
         <v>3</v>
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1981,40 +1981,40 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -2081,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -2236,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2266,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
@@ -2299,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2363,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
         <v>1</v>
@@ -2436,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>4</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z22" t="n">
         <v>4</v>
       </c>
       <c r="AA22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
         <v>4</v>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
         <v>4</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="Z24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB24" t="n">
         <v>4</v>
@@ -2688,13 +2688,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2779,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
         <v>3</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>4</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
         <v>4</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="n">
         <v>4</v>
@@ -2958,19 +2958,19 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>1</v>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="n">
         <v>1</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
         <v>3</v>
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -3203,7 +3203,7 @@
         <v>4</v>
       </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>3</v>
@@ -3288,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>4</v>
@@ -3309,7 +3309,7 @@
         <v>3</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
@@ -3358,13 +3358,13 @@
         <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA33" t="n">
         <v>3</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21775</v>
+        <v>23258</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3621,13 +3621,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -3643,13 +3643,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
@@ -3701,21 +3701,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3723,18 +3723,18 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -3742,14 +3742,14 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3764,24 +3764,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -3789,43 +3789,43 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -3833,26 +3833,26 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -3874,36 +3874,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3918,95 +3918,95 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -4039,40 +4039,40 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
@@ -4094,58 +4094,58 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="n">
         <v>8</v>
       </c>
-      <c r="E24" t="n">
-        <v>5</v>
-      </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -4160,80 +4160,80 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -4248,58 +4248,58 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -4314,43 +4314,43 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
         <v>-2</v>
@@ -4358,51 +4358,51 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
       </c>
       <c r="F36" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B38" t="n">
         <v>4</v>
@@ -4413,69 +4413,69 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -4490,51 +4490,51 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n">
         <v>4</v>
@@ -4545,255 +4545,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>24</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" t="n">
-        <v>8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>24</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>8</v>
-      </c>
-      <c r="F46" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>24</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>4</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>25</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>7</v>
-      </c>
-      <c r="E48" t="n">
-        <v>8</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>26</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>7</v>
-      </c>
-      <c r="E49" t="n">
-        <v>8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>26</v>
-      </c>
-      <c r="B50" t="n">
-        <v>4</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>8</v>
-      </c>
-      <c r="E50" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>27</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>7</v>
-      </c>
-      <c r="E51" t="n">
-        <v>8</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>27</v>
-      </c>
-      <c r="B52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>8</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>27</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>6</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>28</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>7</v>
-      </c>
-      <c r="E54" t="n">
-        <v>8</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>28</v>
-      </c>
-      <c r="B55" t="n">
-        <v>3</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
